--- a/ProyectoCompiladores/ProyectoCompiladores/bin/Debug/net8.0/gen.xlsx
+++ b/ProyectoCompiladores/ProyectoCompiladores/bin/Debug/net8.0/gen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Estado 0</t>
   </si>
@@ -31,7 +31,7 @@
     <t>initial_action</t>
   </si>
   <si>
-    <t>PROGRAM identifier ; declarations compound_statement .';</t>
+    <t>PROGRAM identifier ; declarations compound_statement .</t>
   </si>
   <si>
     <t>PROGRAM</t>
@@ -82,28 +82,31 @@
     <t>4 &gt; VAR &gt; 6</t>
   </si>
   <si>
-    <t>ε;</t>
-  </si>
-  <si>
-    <t>4 &gt; ε; &gt; 7</t>
+    <t>compound_statement</t>
+  </si>
+  <si>
+    <t>4 &gt; compound_statement &gt; 7</t>
+  </si>
+  <si>
+    <t>reduce_epsilon(3)</t>
+  </si>
+  <si>
+    <t>BEGIN statement_list END</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>4 &gt; BEGIN &gt; 8</t>
   </si>
   <si>
     <t>Estado 5</t>
   </si>
   <si>
-    <t>compound_statement</t>
-  </si>
-  <si>
-    <t>5 &gt; compound_statement &gt; 8</t>
-  </si>
-  <si>
-    <t>BEGIN statement_list END';</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
-    <t>5 &gt; BEGIN &gt; 9</t>
+    <t>5 &gt; compound_statement &gt; 9</t>
+  </si>
+  <si>
+    <t>5 &gt; BEGIN &gt; 8</t>
   </si>
   <si>
     <t>Estado 6</t>
@@ -115,37 +118,40 @@
     <t>Estado 7</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>7 &gt; . &gt; 11</t>
+  </si>
+  <si>
     <t>Estado 8</t>
   </si>
   <si>
-    <t>.';</t>
-  </si>
-  <si>
-    <t>8 &gt; .'; &gt; 11</t>
+    <t>statement_list</t>
+  </si>
+  <si>
+    <t>8 &gt; statement_list &gt; 12</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>8 &gt; assignment &gt; 14</t>
+  </si>
+  <si>
+    <t>assignment ; statement_list</t>
+  </si>
+  <si>
+    <t>identifier := expression</t>
+  </si>
+  <si>
+    <t>8 &gt; identifier &gt; 15</t>
   </si>
   <si>
     <t>Estado 9</t>
   </si>
   <si>
-    <t>statement_list</t>
-  </si>
-  <si>
-    <t>9 &gt; statement_list &gt; 12</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>9 &gt; assignment &gt; 14</t>
-  </si>
-  <si>
-    <t>assignment ; statement_list&gt;;</t>
-  </si>
-  <si>
-    <t>identifier := expression&gt;;</t>
-  </si>
-  <si>
-    <t>9 &gt; identifier &gt; 15</t>
+    <t>9 &gt; . &gt; 16</t>
   </si>
   <si>
     <t>Estado 10</t>
@@ -154,7 +160,7 @@
     <t>:</t>
   </si>
   <si>
-    <t>10 &gt; : &gt; 16</t>
+    <t>10 &gt; : &gt; 17</t>
   </si>
   <si>
     <t>Estado 11</t>
@@ -163,10 +169,10 @@
     <t>Estado 12</t>
   </si>
   <si>
-    <t>END';</t>
-  </si>
-  <si>
-    <t>12 &gt; END'; &gt; 17</t>
+    <t>END</t>
+  </si>
+  <si>
+    <t>12 &gt; END &gt; 18</t>
   </si>
   <si>
     <t>Estado 13</t>
@@ -175,7 +181,7 @@
     <t>Estado 14</t>
   </si>
   <si>
-    <t>14 &gt; ; &gt; 18</t>
+    <t>14 &gt; ; &gt; 19</t>
   </si>
   <si>
     <t>Estado 15</t>
@@ -184,93 +190,171 @@
     <t>:=</t>
   </si>
   <si>
-    <t>15 &gt; := &gt; 19</t>
+    <t>15 &gt; := &gt; 20</t>
   </si>
   <si>
     <t>Estado 16</t>
   </si>
   <si>
+    <t>Estado 17</t>
+  </si>
+  <si>
     <t>INTEGER</t>
   </si>
   <si>
-    <t>16 &gt; INTEGER &gt; 20</t>
-  </si>
-  <si>
-    <t>Estado 17</t>
+    <t>17 &gt; INTEGER &gt; 21</t>
   </si>
   <si>
     <t>Estado 18</t>
   </si>
   <si>
-    <t>statement_list&gt;;</t>
-  </si>
-  <si>
-    <t>18 &gt; statement_list&gt;; &gt; 21</t>
-  </si>
-  <si>
     <t>Estado 19</t>
   </si>
   <si>
-    <t>expression&gt;;</t>
-  </si>
-  <si>
-    <t>19 &gt; expression&gt;; &gt; 22</t>
+    <t>19 &gt; statement_list &gt; 22</t>
+  </si>
+  <si>
+    <t>19 &gt; assignment &gt; 14</t>
+  </si>
+  <si>
+    <t>19 &gt; identifier &gt; 15</t>
   </si>
   <si>
     <t>Estado 20</t>
   </si>
   <si>
-    <t>20 &gt; ; &gt; 23</t>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>20 &gt; expression &gt; 23</t>
+  </si>
+  <si>
+    <t>term + term</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>20 &gt; term &gt; 25</t>
+  </si>
+  <si>
+    <t>factor * factor</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>20 &gt; factor &gt; 27</t>
+  </si>
+  <si>
+    <t>20 &gt; identifier &gt; 28</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>20 &gt; number &gt; 29</t>
   </si>
   <si>
     <t>Estado 21</t>
   </si>
   <si>
+    <t>21 &gt; ; &gt; 30</t>
+  </si>
+  <si>
     <t>Estado 22</t>
   </si>
   <si>
     <t>Estado 23</t>
   </si>
   <si>
-    <t>23 &gt; declarations &gt; 24</t>
-  </si>
-  <si>
-    <t>23 &gt; VAR &gt; 6</t>
-  </si>
-  <si>
-    <t>23 &gt; ε; &gt; 7</t>
-  </si>
-  <si>
     <t>Estado 24</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>24 &gt; + &gt; 31</t>
+  </si>
+  <si>
+    <t>Estado 25</t>
+  </si>
+  <si>
+    <t>25 &gt; + &gt; 31</t>
+  </si>
+  <si>
+    <t>Estado 26</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>26 &gt; * &gt; 32</t>
+  </si>
+  <si>
+    <t>Estado 27</t>
+  </si>
+  <si>
+    <t>27 &gt; * &gt; 32</t>
+  </si>
+  <si>
+    <t>Estado 28</t>
+  </si>
+  <si>
+    <t>Estado 29</t>
+  </si>
+  <si>
+    <t>Estado 30</t>
+  </si>
+  <si>
+    <t>30 &gt; declarations &gt; 33</t>
+  </si>
+  <si>
+    <t>30 &gt; VAR &gt; 6</t>
+  </si>
+  <si>
+    <t>reduce_epsilon(5)</t>
+  </si>
+  <si>
+    <t>Estado 31</t>
+  </si>
+  <si>
+    <t>31 &gt; term &gt; 34</t>
+  </si>
+  <si>
+    <t>31 &gt; factor &gt; 27</t>
+  </si>
+  <si>
+    <t>31 &gt; identifier &gt; 28</t>
+  </si>
+  <si>
+    <t>31 &gt; number &gt; 29</t>
+  </si>
+  <si>
+    <t>Estado 32</t>
+  </si>
+  <si>
+    <t>32 &gt; factor &gt; 35</t>
+  </si>
+  <si>
+    <t>32 &gt; identifier &gt; 28</t>
+  </si>
+  <si>
+    <t>32 &gt; number &gt; 29</t>
+  </si>
+  <si>
+    <t>Estado 33</t>
+  </si>
+  <si>
+    <t>Estado 34</t>
+  </si>
+  <si>
+    <t>Estado 35</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
     <t>S 2</t>
   </si>
   <si>
@@ -283,25 +367,28 @@
     <t>S 3</t>
   </si>
   <si>
-    <t>S 25</t>
+    <t>S 36</t>
+  </si>
+  <si>
+    <t>S 38</t>
   </si>
   <si>
     <t>S 6</t>
   </si>
   <si>
-    <t>G 26</t>
-  </si>
-  <si>
-    <t>S 27</t>
-  </si>
-  <si>
-    <t>G 8</t>
+    <t>G 7</t>
+  </si>
+  <si>
+    <t>G 37</t>
+  </si>
+  <si>
+    <t>G 9</t>
   </si>
   <si>
     <t>S 10</t>
   </si>
   <si>
-    <t>R 2</t>
+    <t>S 11</t>
   </si>
   <si>
     <t>S 15</t>
@@ -316,79 +403,289 @@
     <t>S 16</t>
   </si>
   <si>
+    <t>S 17</t>
+  </si>
+  <si>
     <t>S 18</t>
   </si>
   <si>
-    <t>S 19</t>
-  </si>
-  <si>
-    <t>S 20</t>
-  </si>
-  <si>
-    <t>S 23</t>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>S 39</t>
+  </si>
+  <si>
+    <t>S 40</t>
+  </si>
+  <si>
+    <t>S 21</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>G 22</t>
+  </si>
+  <si>
+    <t>S 28</t>
+  </si>
+  <si>
+    <t>S 29</t>
+  </si>
+  <si>
+    <t>G 23</t>
+  </si>
+  <si>
+    <t>G 27</t>
+  </si>
+  <si>
+    <t>G 25</t>
+  </si>
+  <si>
+    <t>S 30</t>
+  </si>
+  <si>
+    <t>R 5</t>
   </si>
   <si>
     <t>R 6</t>
   </si>
   <si>
-    <t>G 24</t>
+    <t>S 41</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>S 42</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>R 11</t>
+  </si>
+  <si>
+    <t>R 12</t>
   </si>
   <si>
     <t>R 1</t>
   </si>
   <si>
-    <t>S 28</t>
-  </si>
-  <si>
-    <t>G 27</t>
-  </si>
-  <si>
-    <t>S 30</t>
-  </si>
-  <si>
-    <t>S 32</t>
-  </si>
-  <si>
-    <t>G 31</t>
-  </si>
-  <si>
-    <t>S 33</t>
-  </si>
-  <si>
-    <t>S 36</t>
+    <t>G 33</t>
+  </si>
+  <si>
+    <t>G 34</t>
   </si>
   <si>
     <t>G 35</t>
   </si>
   <si>
-    <t>G 34</t>
-  </si>
-  <si>
-    <t>S 37</t>
-  </si>
-  <si>
-    <t>S 38</t>
-  </si>
-  <si>
-    <t>S 39</t>
-  </si>
-  <si>
-    <t>S 41</t>
-  </si>
-  <si>
-    <t>S 42</t>
-  </si>
-  <si>
-    <t>S 45</t>
-  </si>
-  <si>
-    <t>S 48</t>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>S 44</t>
+  </si>
+  <si>
+    <t>S 43</t>
+  </si>
+  <si>
+    <t>G 42</t>
+  </si>
+  <si>
+    <t>S 46</t>
+  </si>
+  <si>
+    <t>G 45</t>
+  </si>
+  <si>
+    <t>S 47</t>
   </si>
   <si>
     <t>S 49</t>
   </si>
   <si>
-    <t>G 49</t>
+    <t>S 50</t>
+  </si>
+  <si>
+    <t>G 48</t>
+  </si>
+  <si>
+    <t>G 50</t>
+  </si>
+  <si>
+    <t>S 51</t>
+  </si>
+  <si>
+    <t>S 52</t>
+  </si>
+  <si>
+    <t>S 53</t>
+  </si>
+  <si>
+    <t>S 56</t>
+  </si>
+  <si>
+    <t>G 55</t>
+  </si>
+  <si>
+    <t>G 54</t>
+  </si>
+  <si>
+    <t>S 57</t>
+  </si>
+  <si>
+    <t>S 58</t>
+  </si>
+  <si>
+    <t>S 59</t>
+  </si>
+  <si>
+    <t>S 60</t>
+  </si>
+  <si>
+    <t>S 61</t>
+  </si>
+  <si>
+    <t>S 62</t>
+  </si>
+  <si>
+    <t>S 63</t>
+  </si>
+  <si>
+    <t>S 64</t>
+  </si>
+  <si>
+    <t>S 65</t>
+  </si>
+  <si>
+    <t>G 65</t>
+  </si>
+  <si>
+    <t>S 69</t>
+  </si>
+  <si>
+    <t>S 70</t>
+  </si>
+  <si>
+    <t>G 66</t>
+  </si>
+  <si>
+    <t>G 68</t>
+  </si>
+  <si>
+    <t>G 67</t>
+  </si>
+  <si>
+    <t>S 74</t>
+  </si>
+  <si>
+    <t>S 75</t>
+  </si>
+  <si>
+    <t>G 71</t>
+  </si>
+  <si>
+    <t>G 73</t>
+  </si>
+  <si>
+    <t>G 72</t>
+  </si>
+  <si>
+    <t>S 76</t>
+  </si>
+  <si>
+    <t>G 76</t>
+  </si>
+  <si>
+    <t>S 77</t>
+  </si>
+  <si>
+    <t>S 78</t>
+  </si>
+  <si>
+    <t>G 78</t>
+  </si>
+  <si>
+    <t>S 82</t>
+  </si>
+  <si>
+    <t>S 83</t>
+  </si>
+  <si>
+    <t>G 79</t>
+  </si>
+  <si>
+    <t>G 81</t>
+  </si>
+  <si>
+    <t>G 80</t>
+  </si>
+  <si>
+    <t>S 84</t>
+  </si>
+  <si>
+    <t>S 85</t>
+  </si>
+  <si>
+    <t>S 86</t>
+  </si>
+  <si>
+    <t>S 87</t>
+  </si>
+  <si>
+    <t>S 88</t>
+  </si>
+  <si>
+    <t>S 89</t>
+  </si>
+  <si>
+    <t>S 90</t>
+  </si>
+  <si>
+    <t>S 91</t>
+  </si>
+  <si>
+    <t>G 91</t>
+  </si>
+  <si>
+    <t>S 92</t>
+  </si>
+  <si>
+    <t>G 92</t>
+  </si>
+  <si>
+    <t>S 93</t>
+  </si>
+  <si>
+    <t>G 93</t>
+  </si>
+  <si>
+    <t>S 94</t>
+  </si>
+  <si>
+    <t>G 94</t>
+  </si>
+  <si>
+    <t>S 95</t>
+  </si>
+  <si>
+    <t>G 95</t>
+  </si>
+  <si>
+    <t>S 96</t>
+  </si>
+  <si>
+    <t>G 96</t>
+  </si>
+  <si>
+    <t>S 97</t>
+  </si>
+  <si>
+    <t>G 97</t>
   </si>
 </sst>
 </file>
@@ -441,7 +738,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,10 +746,10 @@
   <cols>
     <col min="1" max="1" width="9.299322128295898" customWidth="1"/>
     <col min="2" max="2" width="20.272720336914062" customWidth="1"/>
-    <col min="3" max="3" width="53.035362243652344" customWidth="1"/>
+    <col min="3" max="3" width="51.98160171508789" customWidth="1"/>
     <col min="4" max="4" width="20.272720336914062" customWidth="1"/>
     <col min="5" max="5" width="26.56252670288086" customWidth="1"/>
-    <col min="6" max="6" width="12.0800142288208" customWidth="1"/>
+    <col min="6" max="6" width="16.570247650146484" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -585,10 +882,10 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>22</v>
@@ -597,38 +894,38 @@
         <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>29</v>
@@ -637,75 +934,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="16">
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="F16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="B23" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>8</v>
@@ -716,7 +1033,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>39</v>
@@ -730,260 +1047,274 @@
     </row>
     <row r="25">
       <c r="B25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="E38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="E40" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="F46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>8</v>
@@ -991,7 +1322,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>39</v>
@@ -999,25 +1330,45 @@
       <c r="C53" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="D53" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="F53" s="0" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="54">
+      <c r="B54" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="B55" s="0" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>8</v>
@@ -1025,16 +1376,16 @@
     </row>
     <row r="56">
       <c r="B56" s="0" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>8</v>
@@ -1042,32 +1393,462 @@
     </row>
     <row r="57">
       <c r="B57" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="C61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="F75" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1079,7 +1860,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:BG53"/>
+  <dimension ref="A1:BG101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,40 +1895,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1159,16 +1940,16 @@
         <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1177,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1185,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -1204,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -1212,18 +1993,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -1231,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -1242,34 +2029,37 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>95</v>
+      <c r="E9" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>98</v>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1277,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1289,18 +2079,27 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1308,259 +2107,925 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>103</v>
+      <c r="J22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
+      <c r="I24" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>105</v>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>106</v>
+      <c r="G26" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>108</v>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>93</v>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>98</v>
+      <c r="B29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>112</v>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>115</v>
+      <c r="H32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>116</v>
+      <c r="J33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>117</v>
+      <c r="J34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>118</v>
+      <c r="H35" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>121</v>
+      <c r="J41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="J42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>124</v>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2"/>
     </row>
   </sheetData>
   <headerFooter/>
@@ -1570,7 +3035,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:BG53"/>
+  <dimension ref="A1:BG101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1605,40 +3070,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1650,16 +3115,16 @@
         <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1668,7 +3133,7 @@
         <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1676,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -1695,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -1703,18 +3168,24 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -1722,10 +3193,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -1733,34 +3204,37 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>95</v>
+      <c r="E9" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>98</v>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1768,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1780,18 +3254,27 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1799,259 +3282,925 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>103</v>
+      <c r="J22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
+      <c r="I24" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>105</v>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>106</v>
+      <c r="G26" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>108</v>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>93</v>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>98</v>
+      <c r="B29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>112</v>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>115</v>
+      <c r="H32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>116</v>
+      <c r="J33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>117</v>
+      <c r="J34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>118</v>
+      <c r="H35" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>121</v>
+      <c r="J41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="J42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>124</v>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2"/>
     </row>
   </sheetData>
   <headerFooter/>
